--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FDOS\Geoffrey\Documents\POLYTECH Marseille\4A\Projet Muse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FDOS\Geoffrey\Documents\POLYTECH Marseille\4A\Projet Muse\Projet-Muse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B2BB9F-7FB3-4670-B435-B213ED2C9DDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDF885C-8F26-4610-AEA9-7B91B86DF5D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C964CD82-8BC5-49C0-8166-E4C28772A61E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Tristan</t>
   </si>
@@ -36,91 +36,88 @@
     <t>Geoffrey</t>
   </si>
   <si>
-    <t>Mathilde</t>
+    <t>Halima</t>
+  </si>
+  <si>
+    <t>FRANCAIS</t>
+  </si>
+  <si>
+    <t>DjaDja</t>
+  </si>
+  <si>
+    <t>louane</t>
+  </si>
+  <si>
+    <t>Nekfeu</t>
+  </si>
+  <si>
+    <t>Angele</t>
+  </si>
+  <si>
+    <t>VIETNAM</t>
+  </si>
+  <si>
+    <t>chung</t>
+  </si>
+  <si>
+    <t>lac-troi</t>
+  </si>
+  <si>
+    <t>my-tam</t>
+  </si>
+  <si>
+    <t>phia</t>
+  </si>
+  <si>
+    <t>CHINE</t>
+  </si>
+  <si>
+    <t>jolin</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>tizzy</t>
+  </si>
+  <si>
+    <t>vindia</t>
+  </si>
+  <si>
+    <t>MAGHREB</t>
+  </si>
+  <si>
+    <t>mok</t>
+  </si>
+  <si>
+    <t>sanfara</t>
+  </si>
+  <si>
+    <t>dizzy</t>
+  </si>
+  <si>
+    <t>don bigg</t>
+  </si>
+  <si>
+    <t>AFRIQUE</t>
+  </si>
+  <si>
+    <t>abdoulay</t>
+  </si>
+  <si>
+    <t>dtm nani</t>
+  </si>
+  <si>
+    <t>dtm koro</t>
+  </si>
+  <si>
+    <t>rica</t>
+  </si>
+  <si>
+    <t>Sohaib</t>
   </si>
   <si>
     <t>Chaikou</t>
-  </si>
-  <si>
-    <t>Halima</t>
-  </si>
-  <si>
-    <t>Franck</t>
-  </si>
-  <si>
-    <t>FRANCAIS</t>
-  </si>
-  <si>
-    <t>DjaDja</t>
-  </si>
-  <si>
-    <t>louane</t>
-  </si>
-  <si>
-    <t>Nekfeu</t>
-  </si>
-  <si>
-    <t>Angele</t>
-  </si>
-  <si>
-    <t>VIETNAM</t>
-  </si>
-  <si>
-    <t>chung</t>
-  </si>
-  <si>
-    <t>lac-troi</t>
-  </si>
-  <si>
-    <t>my-tam</t>
-  </si>
-  <si>
-    <t>phia</t>
-  </si>
-  <si>
-    <t>CHINE</t>
-  </si>
-  <si>
-    <t>jolin</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>tizzy</t>
-  </si>
-  <si>
-    <t>vindia</t>
-  </si>
-  <si>
-    <t>MAGHREB</t>
-  </si>
-  <si>
-    <t>mok</t>
-  </si>
-  <si>
-    <t>sanfara</t>
-  </si>
-  <si>
-    <t>dizzy</t>
-  </si>
-  <si>
-    <t>don bigg</t>
-  </si>
-  <si>
-    <t>AFRIQUE</t>
-  </si>
-  <si>
-    <t>abdoulay</t>
-  </si>
-  <si>
-    <t>dtm nani</t>
-  </si>
-  <si>
-    <t>dtm koro</t>
-  </si>
-  <si>
-    <t>rica</t>
   </si>
 </sst>
 </file>
@@ -481,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E7812E-82AE-4C7F-8E95-97A8610E5C51}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -500,63 +497,84 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E3">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
       </c>
       <c r="G4">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
-      </c>
-      <c r="G5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -567,13 +585,19 @@
       <c r="D8">
         <v>60</v>
       </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
       <c r="G8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>75</v>
@@ -584,13 +608,19 @@
       <c r="D9">
         <v>65</v>
       </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
       <c r="G9">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -601,13 +631,19 @@
       <c r="D10">
         <v>50</v>
       </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
       <c r="G10">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -618,18 +654,24 @@
       <c r="D11">
         <v>60</v>
       </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
       <c r="G11">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>55</v>
@@ -640,13 +682,19 @@
       <c r="D13">
         <v>65</v>
       </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
       <c r="G13">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>40</v>
@@ -657,13 +705,19 @@
       <c r="D14">
         <v>40</v>
       </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
       <c r="G14">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>75</v>
@@ -673,14 +727,20 @@
       </c>
       <c r="D15">
         <v>75</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
       </c>
       <c r="G15">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>75</v>
@@ -689,6 +749,12 @@
         <v>80</v>
       </c>
       <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
         <v>70</v>
       </c>
       <c r="G16">
@@ -697,12 +763,12 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>60</v>
@@ -712,11 +778,14 @@
       </c>
       <c r="D18">
         <v>75</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>75</v>
@@ -727,10 +796,13 @@
       <c r="D19">
         <v>70</v>
       </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>55</v>
@@ -741,10 +813,13 @@
       <c r="D20">
         <v>75</v>
       </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>55</v>
@@ -755,15 +830,18 @@
       <c r="D21">
         <v>70</v>
       </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -774,13 +852,16 @@
       <c r="D23">
         <v>45</v>
       </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
       <c r="G23">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>50</v>
@@ -790,6 +871,9 @@
       </c>
       <c r="D24">
         <v>60</v>
+      </c>
+      <c r="F24">
+        <v>70</v>
       </c>
       <c r="G24">
         <v>75</v>
@@ -797,7 +881,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>45</v>
@@ -808,13 +892,16 @@
       <c r="D25">
         <v>65</v>
       </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
       <c r="G25">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -823,6 +910,9 @@
         <v>40</v>
       </c>
       <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="F26">
         <v>60</v>
       </c>
       <c r="G26">
